--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAAFA1D-1FC5-4664-B2B5-EA0D28B2F7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43353A1-8417-4524-80B4-A5E4E67502C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>30항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffSec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,22 +570,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -609,8 +613,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -638,8 +645,11 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -667,8 +677,11 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -696,8 +709,11 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -725,8 +741,11 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -754,8 +773,11 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -783,8 +805,11 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -812,8 +837,11 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -841,8 +869,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -870,8 +901,11 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -899,8 +933,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -928,8 +965,11 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -957,8 +997,11 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -986,8 +1029,11 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1015,8 +1061,11 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1044,8 +1093,11 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1073,8 +1125,11 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1102,8 +1157,11 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1131,8 +1189,11 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1160,8 +1221,11 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1189,8 +1253,11 @@
       <c r="I21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1216,6 +1283,9 @@
         <v>23</v>
       </c>
       <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43353A1-8417-4524-80B4-A5E4E67502C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12B54A-EDD1-482A-929F-CC22578914A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12B54A-EDD1-482A-929F-CC22578914A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F7B8C-0277-43E9-A0C8-D7AFEAB3A6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -574,18 +574,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.8984375" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -681,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -745,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -777,7 +777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -998,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F7B8C-0277-43E9-A0C8-D7AFEAB3A6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289D324-997E-4BEA-AB0E-DD0710D55C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>buffSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,11 +594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1289,6 +1313,198 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9.9999999999999994E+57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>23</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1.9999999999999999E+58</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4.9999999999999999E+58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>23</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7.9999999999999996E+58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>23</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1.2000000000000001E+59</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>23</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1.9999999999999999E+59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="1">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="H28" s="1">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289D324-997E-4BEA-AB0E-DD0710D55C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE052C-0988-484F-89A1-AC86611CB8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>2000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,11 +606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1505,6 +1517,102 @@
         <v>21</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3E+59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="1">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1700000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>23</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4.9999999999999997E+59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1800000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>23</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>7.0000000000000004E+59</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1900000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>23</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE052C-0988-484F-89A1-AC86611CB8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB064B-FCE4-44A3-9CE8-B60B78E1218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,26 @@
   </si>
   <si>
     <t>7000아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,11 +626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1613,6 +1633,166 @@
         <v>24</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.9999999999999999E+60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>23</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3.9999999999999998E+60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2200000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>23</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.9999999999999997E+60</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>23</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>7.9999999999999996E+60</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="1">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2400000</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>23</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB064B-FCE4-44A3-9CE8-B60B78E1218C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C2FB4-9BFB-4F82-B87D-7DE50F6988EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,38 @@
   </si>
   <si>
     <t>8나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,11 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32:G36"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1793,6 +1825,262 @@
         <v>29</v>
       </c>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3">
+        <v>9.9999999999999995E+60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="H37" s="1">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.9999999999999999E+61</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>23</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3E+61</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>23</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5.0000000000000002E+61</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="1">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>23</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3">
+        <v>7.0000000000000004E+61</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="1">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>23</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1E+62</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>23</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1.5E+62</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="1">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3100000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>23</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2.0000000000000001E+62</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>23</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C2FB4-9BFB-4F82-B87D-7DE50F6988EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277B0BB-B927-43A7-9FD4-6CB34783488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,22 @@
   </si>
   <si>
     <t>200나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,11 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2081,6 +2097,134 @@
         <v>37</v>
       </c>
     </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4.0000000000000001E+62</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="1">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3300000</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="1">
+        <v>23</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>6E+62</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3400000</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1.04E-2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>23</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.0000000000000001E+63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>23</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.5E+63</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>23</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A277B0BB-B927-43A7-9FD4-6CB34783488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C9D952-076F-4B0D-A17C-28E3499C7C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,42 @@
   </si>
   <si>
     <t>1500나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불 5000나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,11 +710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2225,6 +2261,294 @@
         <v>41</v>
       </c>
     </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>2.0000000000000001E+63</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1">
+        <v>3700000</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>23</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3E+63</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3800000</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>23</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>4.0000000000000002E+63</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3900000</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.24E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>23</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5.0000000000000001E+63</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1">
+        <v>20</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>23</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3">
+        <v>7.0000000000000006E+63</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1">
+        <v>20</v>
+      </c>
+      <c r="E53" s="1">
+        <v>4100000</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.32E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>23</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1E+64</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="1">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4200000</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>23</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1.5000000000000001E+64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="1">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4300000</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>23</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2E+64</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="1">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4400000</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>23</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3">
+        <v>3.0000000000000002E+64</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="1">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4500000</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>23</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C9D952-076F-4B0D-A17C-28E3499C7C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B37BF-2E22-4DE3-B715-87F9774AFD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>3불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,11 +722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2549,6 +2561,102 @@
         <v>50</v>
       </c>
     </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5E+64</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="1">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4600000</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>23</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>6.9999999999999997E+64</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1">
+        <v>4700000</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>23</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>9.9999999999999999E+64</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="1">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4800000</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>23</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509B37BF-2E22-4DE3-B715-87F9774AFD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4494A8-A3A2-4D49-AE58-B509CA42F04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,38 @@
   </si>
   <si>
     <t>10불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,11 +754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2657,6 +2689,262 @@
         <v>53</v>
       </c>
     </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2E+65</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="1">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4900000</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>23</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>4E+65</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20</v>
+      </c>
+      <c r="E62" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>23</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>7.0000000000000002E+65</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5100000</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>23</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>9.9999999999999995E+65</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5200000</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>23</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.5E+66</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="1">
+        <v>20</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5300000</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>23</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.9999999999999999E+66</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="1">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1">
+        <v>5400000</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>23</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2.5E+66</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="1">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5500000</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>23</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3E+66</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="1">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5600000</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>23</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4494A8-A3A2-4D49-AE58-B509CA42F04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406E71B-2F2C-4DC1-B4EF-F3628A95DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,26 @@
   </si>
   <si>
     <t>300불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,11 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2945,6 +2965,166 @@
         <v>60</v>
       </c>
     </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3.9999999999999998E+66</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="1">
+        <v>20</v>
+      </c>
+      <c r="E69" s="1">
+        <v>5700000</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>23</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>4.9999999999999999E+66</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="1">
+        <v>20</v>
+      </c>
+      <c r="E70" s="1">
+        <v>5800000</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H70" s="1">
+        <v>23</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3">
+        <v>6E+66</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="1">
+        <v>20</v>
+      </c>
+      <c r="E71" s="1">
+        <v>5900000</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>23</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>7.9999999999999996E+66</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="1">
+        <v>20</v>
+      </c>
+      <c r="E72" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>23</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3">
+        <v>9.9999999999999998E+66</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="1">
+        <v>20</v>
+      </c>
+      <c r="E73" s="1">
+        <v>6100000</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2.12E-2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>23</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406E71B-2F2C-4DC1-B4EF-F3628A95DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC3F82B-BB79-4B5D-B5FC-0F0C0E7EA8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC3F82B-BB79-4B5D-B5FC-0F0C0E7EA8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E5EBB9-DA29-409A-B626-FC69863C7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,30 @@
   </si>
   <si>
     <t>1000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,11 +798,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3125,6 +3149,198 @@
         <v>60</v>
       </c>
     </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.2E+67</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1">
+        <v>6200000</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>23</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.5E+67</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="1">
+        <v>20</v>
+      </c>
+      <c r="E75" s="1">
+        <v>6300000</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>23</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1.7999999999999999E+67</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="1">
+        <v>20</v>
+      </c>
+      <c r="E76" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>23</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2.1000000000000001E+67</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="1">
+        <v>20</v>
+      </c>
+      <c r="E77" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>23</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2.4999999999999999E+67</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="1">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1">
+        <v>6600000</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="H78" s="1">
+        <v>23</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3">
+        <v>3.0000000000000001E+67</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="1">
+        <v>20</v>
+      </c>
+      <c r="E79" s="1">
+        <v>6700000</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="H79" s="1">
+        <v>23</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E5EBB9-DA29-409A-B626-FC69863C7588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8638410-B173-4ADF-B708-2F0BFC48B484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,34 @@
   </si>
   <si>
     <t>3000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무2000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1무5000불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3341,6 +3369,230 @@
         <v>60</v>
       </c>
     </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>3.5E+67</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="1">
+        <v>20</v>
+      </c>
+      <c r="E80" s="1">
+        <v>6800000</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>23</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3">
+        <v>4.4999999999999998E+67</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="1">
+        <v>20</v>
+      </c>
+      <c r="E81" s="1">
+        <v>6900000</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="H81" s="1">
+        <v>23</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>6.0000000000000002E+67</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="1">
+        <v>20</v>
+      </c>
+      <c r="E82" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="H82" s="1">
+        <v>23</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3">
+        <v>7.9999999999999999E+67</v>
+      </c>
+      <c r="C83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="1">
+        <v>20</v>
+      </c>
+      <c r="E83" s="1">
+        <v>7100000</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2.52E-2</v>
+      </c>
+      <c r="H83" s="1">
+        <v>23</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+      <c r="D84" s="1">
+        <v>20</v>
+      </c>
+      <c r="E84" s="1">
+        <v>7200000</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H84" s="1">
+        <v>23</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1.2E+68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="1">
+        <v>20</v>
+      </c>
+      <c r="E85" s="1">
+        <v>7300000</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H85" s="1">
+        <v>23</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1.5000000000000001E+68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D86" s="1">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1">
+        <v>7400000</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2.64E-2</v>
+      </c>
+      <c r="H86" s="1">
+        <v>23</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8638410-B173-4ADF-B708-2F0BFC48B484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3ABB9E-61BB-41E2-937C-90B13775A5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +413,26 @@
   </si>
   <si>
     <t>1무5000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2무5000불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,11 +846,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3593,6 +3613,166 @@
         <v>60</v>
       </c>
     </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1.9999999999999999E+68</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="1">
+        <v>20</v>
+      </c>
+      <c r="E87" s="1">
+        <v>7500000</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="H87" s="1">
+        <v>23</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2.5000000000000002E+68</v>
+      </c>
+      <c r="C88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="1">
+        <v>20</v>
+      </c>
+      <c r="E88" s="1">
+        <v>7600000</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="H88" s="1">
+        <v>23</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3.0000000000000002E+68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+      <c r="D89" s="1">
+        <v>20</v>
+      </c>
+      <c r="E89" s="1">
+        <v>7700000</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2.76E-2</v>
+      </c>
+      <c r="H89" s="1">
+        <v>23</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3.9999999999999998E+68</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="1">
+        <v>20</v>
+      </c>
+      <c r="E90" s="1">
+        <v>7800000</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H90" s="1">
+        <v>23</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3">
+        <v>5.0000000000000004E+68</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="1">
+        <v>20</v>
+      </c>
+      <c r="E91" s="1">
+        <v>7900000</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="H91" s="1">
+        <v>23</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3ABB9E-61BB-41E2-937C-90B13775A5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7DEB22-D7A4-488B-B816-8B52086EE03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +433,38 @@
   </si>
   <si>
     <t>5무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,11 +878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3773,6 +3805,262 @@
         <v>60</v>
       </c>
     </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>6.9999999999999995E+68</v>
+      </c>
+      <c r="C92" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="1">
+        <v>20</v>
+      </c>
+      <c r="E92" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="H92" s="1">
+        <v>23</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1.0000000000000001E+69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="1">
+        <v>20</v>
+      </c>
+      <c r="E93" s="1">
+        <v>8100000</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>2.92E-2</v>
+      </c>
+      <c r="H93" s="1">
+        <v>23</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1.4999999999999999E+69</v>
+      </c>
+      <c r="C94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="1">
+        <v>20</v>
+      </c>
+      <c r="E94" s="1">
+        <v>8200000</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H94" s="1">
+        <v>23</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2.0000000000000001E+69</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="1">
+        <v>20</v>
+      </c>
+      <c r="E95" s="1">
+        <v>8300000</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H95" s="1">
+        <v>23</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2.9999999999999998E+69</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="1">
+        <v>20</v>
+      </c>
+      <c r="E96" s="1">
+        <v>8400000</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1">
+        <v>3.04E-2</v>
+      </c>
+      <c r="H96" s="1">
+        <v>23</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3">
+        <v>5.0000000000000004E+69</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" s="1">
+        <v>20</v>
+      </c>
+      <c r="E97" s="1">
+        <v>8500000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2</v>
+      </c>
+      <c r="G97" s="1">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="H97" s="1">
+        <v>23</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>6.9999999999999997E+69</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" s="1">
+        <v>20</v>
+      </c>
+      <c r="E98" s="1">
+        <v>8600000</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2</v>
+      </c>
+      <c r="G98" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H98" s="1">
+        <v>23</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1.0000000000000001E+70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99" s="1">
+        <v>20</v>
+      </c>
+      <c r="E99" s="1">
+        <v>8700000</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="H99" s="1">
+        <v>23</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7DEB22-D7A4-488B-B816-8B52086EE03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D061D1C-0EC2-4D97-90EE-F60D5E5A5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,26 @@
   </si>
   <si>
     <t>100무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,11 +898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:J103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4061,6 +4081,166 @@
         <v>60</v>
       </c>
     </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1.3E+70</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" s="1">
+        <v>20</v>
+      </c>
+      <c r="E100" s="1">
+        <v>8800000</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>23</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1.6000000000000001E+70</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101" s="1">
+        <v>20</v>
+      </c>
+      <c r="E101" s="1">
+        <v>8900000</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2</v>
+      </c>
+      <c r="G101" s="1">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>23</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2.0000000000000001E+70</v>
+      </c>
+      <c r="C102" t="s">
+        <v>110</v>
+      </c>
+      <c r="D102" s="1">
+        <v>20</v>
+      </c>
+      <c r="E102" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2</v>
+      </c>
+      <c r="G102" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="H102" s="1">
+        <v>23</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2.5000000000000001E+70</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="1">
+        <v>20</v>
+      </c>
+      <c r="E103" s="1">
+        <v>9100000</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2</v>
+      </c>
+      <c r="G103" s="1">
+        <v>3.32E-2</v>
+      </c>
+      <c r="H103" s="1">
+        <v>23</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2.9999999999999998E+70</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="1">
+        <v>20</v>
+      </c>
+      <c r="E104" s="1">
+        <v>9200000</v>
+      </c>
+      <c r="F104" s="1">
+        <v>2</v>
+      </c>
+      <c r="G104" s="1">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>23</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D061D1C-0EC2-4D97-90EE-F60D5E5A5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86BC846-A4DA-4A35-867A-AD5F625436D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="33090" yWindow="1020" windowWidth="12255" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,50 @@
   </si>
   <si>
     <t>300무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -898,11 +942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:J103"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4241,6 +4285,358 @@
         <v>60</v>
       </c>
     </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3">
+        <v>4.0000000000000003E+70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="1">
+        <v>20</v>
+      </c>
+      <c r="E105" s="1">
+        <v>9300000</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H105" s="1">
+        <v>23</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>5.9999999999999995E+70</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106" s="1">
+        <v>20</v>
+      </c>
+      <c r="E106" s="1">
+        <v>9400000</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2</v>
+      </c>
+      <c r="G106" s="1">
+        <v>3.44E-2</v>
+      </c>
+      <c r="H106" s="1">
+        <v>23</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3">
+        <v>8.0000000000000006E+70</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" s="1">
+        <v>20</v>
+      </c>
+      <c r="E107" s="1">
+        <v>9500000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2</v>
+      </c>
+      <c r="G107" s="1">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="H107" s="1">
+        <v>23</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1E+71</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" s="1">
+        <v>20</v>
+      </c>
+      <c r="E108" s="1">
+        <v>9600000</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2</v>
+      </c>
+      <c r="G108" s="1">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>23</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1.3E+71</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" s="1">
+        <v>20</v>
+      </c>
+      <c r="E109" s="1">
+        <v>9700000</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3.56E-2</v>
+      </c>
+      <c r="H109" s="1">
+        <v>23</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1.6000000000000001E+71</v>
+      </c>
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="1">
+        <v>20</v>
+      </c>
+      <c r="E110" s="1">
+        <v>9800000</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2</v>
+      </c>
+      <c r="G110" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H110" s="1">
+        <v>23</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3">
+        <v>2.0000000000000001E+71</v>
+      </c>
+      <c r="C111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" s="1">
+        <v>20</v>
+      </c>
+      <c r="E111" s="1">
+        <v>9900000</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2</v>
+      </c>
+      <c r="G111" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H111" s="1">
+        <v>23</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2.4999999999999999E+71</v>
+      </c>
+      <c r="C112" t="s">
+        <v>120</v>
+      </c>
+      <c r="D112" s="1">
+        <v>20</v>
+      </c>
+      <c r="E112" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="H112" s="1">
+        <v>23</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3">
+        <v>3.0000000000000001E+71</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" s="1">
+        <v>20</v>
+      </c>
+      <c r="E113" s="1">
+        <v>10100000</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2</v>
+      </c>
+      <c r="G113" s="1">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="H113" s="1">
+        <v>23</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>4.0000000000000002E+71</v>
+      </c>
+      <c r="C114" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="1">
+        <v>20</v>
+      </c>
+      <c r="E114" s="1">
+        <v>10200000</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2</v>
+      </c>
+      <c r="G114" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>23</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3">
+        <v>4.9999999999999997E+71</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" s="1">
+        <v>20</v>
+      </c>
+      <c r="E115" s="1">
+        <v>10300000</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H115" s="1">
+        <v>23</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86BC846-A4DA-4A35-867A-AD5F625436D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D595A532-4244-4709-94EA-BB83B00CF634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33090" yWindow="1020" windowWidth="12255" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,26 @@
   </si>
   <si>
     <t>5000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대3000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1대6000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4637,6 +4657,166 @@
         <v>60</v>
       </c>
     </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>6.9999999999999998E+71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" s="1">
+        <v>20</v>
+      </c>
+      <c r="E116" s="1">
+        <v>10400000</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2</v>
+      </c>
+      <c r="G116" s="1">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="H116" s="1">
+        <v>23</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3">
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="1">
+        <v>20</v>
+      </c>
+      <c r="E117" s="1">
+        <v>10500000</v>
+      </c>
+      <c r="F117" s="1">
+        <v>2</v>
+      </c>
+      <c r="G117" s="1">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="H117" s="1">
+        <v>23</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1.2999999999999999E+72</v>
+      </c>
+      <c r="C118" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118" s="1">
+        <v>20</v>
+      </c>
+      <c r="E118" s="1">
+        <v>10600000</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2</v>
+      </c>
+      <c r="G118" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="H118" s="1">
+        <v>23</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1.6000000000000001E+72</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="1">
+        <v>20</v>
+      </c>
+      <c r="E119" s="1">
+        <v>10700000</v>
+      </c>
+      <c r="F119" s="1">
+        <v>2</v>
+      </c>
+      <c r="G119" s="1">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="H119" s="1">
+        <v>23</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1.9999999999999999E+72</v>
+      </c>
+      <c r="C120" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="1">
+        <v>20</v>
+      </c>
+      <c r="E120" s="1">
+        <v>10800000</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="H120" s="1">
+        <v>23</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D595A532-4244-4709-94EA-BB83B00CF634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4866B4-66E3-41BF-9231-4DF102F7ED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -549,6 +549,22 @@
   </si>
   <si>
     <t>2대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2대5000무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,11 +978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L121" sqref="L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4817,6 +4833,134 @@
         <v>60</v>
       </c>
     </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2.5E+72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121" s="1">
+        <v>20</v>
+      </c>
+      <c r="E121" s="1">
+        <v>10900000</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2</v>
+      </c>
+      <c r="G121" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="H121" s="1">
+        <v>23</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>3E+72</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" s="1">
+        <v>20</v>
+      </c>
+      <c r="E122" s="1">
+        <v>11000000</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2</v>
+      </c>
+      <c r="G122" s="1">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="H122" s="1">
+        <v>23</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <v>3.9999999999999998E+72</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="1">
+        <v>20</v>
+      </c>
+      <c r="E123" s="1">
+        <v>11100000</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>23</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>4.9999999999999999E+72</v>
+      </c>
+      <c r="C124" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" s="1">
+        <v>20</v>
+      </c>
+      <c r="E124" s="1">
+        <v>11200000</v>
+      </c>
+      <c r="F124" s="1">
+        <v>2</v>
+      </c>
+      <c r="G124" s="1">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="H124" s="1">
+        <v>23</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4866B4-66E3-41BF-9231-4DF102F7ED86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB98DE-9E8A-4A5F-8BD7-F3444A399CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,62 @@
   </si>
   <si>
     <t>5대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,11 +1034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L121" sqref="L121"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4961,6 +5017,454 @@
         <v>60</v>
       </c>
     </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <v>7.0000000000000002E+72</v>
+      </c>
+      <c r="C125" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125" s="1">
+        <v>20</v>
+      </c>
+      <c r="E125" s="1">
+        <v>11300000</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2</v>
+      </c>
+      <c r="G125" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H125" s="1">
+        <v>23</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>9.9999999999999998E+72</v>
+      </c>
+      <c r="C126" t="s">
+        <v>134</v>
+      </c>
+      <c r="D126" s="1">
+        <v>20</v>
+      </c>
+      <c r="E126" s="1">
+        <v>11400000</v>
+      </c>
+      <c r="F126" s="1">
+        <v>2</v>
+      </c>
+      <c r="G126" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="H126" s="1">
+        <v>23</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1.5000000000000001E+73</v>
+      </c>
+      <c r="C127" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="1">
+        <v>20</v>
+      </c>
+      <c r="E127" s="1">
+        <v>11500000</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2</v>
+      </c>
+      <c r="G127" s="1">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="H127" s="1">
+        <v>23</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2E+73</v>
+      </c>
+      <c r="C128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" s="1">
+        <v>20</v>
+      </c>
+      <c r="E128" s="1">
+        <v>11600000</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2</v>
+      </c>
+      <c r="G128" s="1">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="H128" s="1">
+        <v>23</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3">
+        <v>2.4999999999999999E+73</v>
+      </c>
+      <c r="C129" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129" s="1">
+        <v>20</v>
+      </c>
+      <c r="E129" s="1">
+        <v>11700000</v>
+      </c>
+      <c r="F129" s="1">
+        <v>2</v>
+      </c>
+      <c r="G129" s="1">
+        <v>4.36E-2</v>
+      </c>
+      <c r="H129" s="1">
+        <v>23</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>3.0000000000000001E+73</v>
+      </c>
+      <c r="C130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130" s="1">
+        <v>20</v>
+      </c>
+      <c r="E130" s="1">
+        <v>11800000</v>
+      </c>
+      <c r="F130" s="1">
+        <v>2</v>
+      </c>
+      <c r="G130" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H130" s="1">
+        <v>23</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3">
+        <v>3.9999999999999999E+73</v>
+      </c>
+      <c r="C131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D131" s="1">
+        <v>20</v>
+      </c>
+      <c r="E131" s="1">
+        <v>11900000</v>
+      </c>
+      <c r="F131" s="1">
+        <v>2</v>
+      </c>
+      <c r="G131" s="1">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="H131" s="1">
+        <v>23</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <v>4.9999999999999998E+73</v>
+      </c>
+      <c r="C132" t="s">
+        <v>140</v>
+      </c>
+      <c r="D132" s="1">
+        <v>20</v>
+      </c>
+      <c r="E132" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2</v>
+      </c>
+      <c r="G132" s="1">
+        <v>4.48E-2</v>
+      </c>
+      <c r="H132" s="1">
+        <v>23</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3">
+        <v>6.0000000000000002E+73</v>
+      </c>
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133" s="1">
+        <v>20</v>
+      </c>
+      <c r="E133" s="1">
+        <v>12100000</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2</v>
+      </c>
+      <c r="G133" s="1">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="H133" s="1">
+        <v>23</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>7.9999999999999999E+73</v>
+      </c>
+      <c r="C134" t="s">
+        <v>142</v>
+      </c>
+      <c r="D134" s="1">
+        <v>20</v>
+      </c>
+      <c r="E134" s="1">
+        <v>12200000</v>
+      </c>
+      <c r="F134" s="1">
+        <v>2</v>
+      </c>
+      <c r="G134" s="1">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="H134" s="1">
+        <v>23</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3">
+        <v>9.9999999999999995E+73</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" s="1">
+        <v>20</v>
+      </c>
+      <c r="E135" s="1">
+        <v>12300000</v>
+      </c>
+      <c r="F135" s="1">
+        <v>2</v>
+      </c>
+      <c r="G135" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H135" s="1">
+        <v>23</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1.3E+74</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136" s="1">
+        <v>20</v>
+      </c>
+      <c r="E136" s="1">
+        <v>12400000</v>
+      </c>
+      <c r="F136" s="1">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="H136" s="1">
+        <v>23</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1.6E+74</v>
+      </c>
+      <c r="C137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" s="1">
+        <v>20</v>
+      </c>
+      <c r="E137" s="1">
+        <v>12500000</v>
+      </c>
+      <c r="F137" s="1">
+        <v>2</v>
+      </c>
+      <c r="G137" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="H137" s="1">
+        <v>23</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1.9999999999999999E+74</v>
+      </c>
+      <c r="C138" t="s">
+        <v>146</v>
+      </c>
+      <c r="D138" s="1">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1">
+        <v>12600000</v>
+      </c>
+      <c r="F138" s="1">
+        <v>2</v>
+      </c>
+      <c r="G138" s="1">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="H138" s="1">
+        <v>23</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB98DE-9E8A-4A5F-8BD7-F3444A399CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A224674B-6E82-4A65-B657-62225041A1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +621,22 @@
   </si>
   <si>
     <t>200대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,11 +1050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K126" sqref="K126"/>
+      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5465,6 +5481,134 @@
         <v>60</v>
       </c>
     </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <v>2.4999999999999998E+74</v>
+      </c>
+      <c r="C139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139" s="1">
+        <v>20</v>
+      </c>
+      <c r="E139" s="1">
+        <v>12700000</v>
+      </c>
+      <c r="F139" s="1">
+        <v>2</v>
+      </c>
+      <c r="G139" s="1">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="H139" s="1">
+        <v>23</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>3E+74</v>
+      </c>
+      <c r="C140" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="1">
+        <v>20</v>
+      </c>
+      <c r="E140" s="1">
+        <v>12800000</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2</v>
+      </c>
+      <c r="G140" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H140" s="1">
+        <v>23</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3">
+        <v>3.9999999999999998E+74</v>
+      </c>
+      <c r="C141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="1">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1">
+        <v>12900000</v>
+      </c>
+      <c r="F141" s="1">
+        <v>2</v>
+      </c>
+      <c r="G141" s="1">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="H141" s="1">
+        <v>23</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3">
+        <v>4.9999999999999996E+74</v>
+      </c>
+      <c r="C142" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" s="1">
+        <v>20</v>
+      </c>
+      <c r="E142" s="1">
+        <v>13000000</v>
+      </c>
+      <c r="F142" s="1">
+        <v>2</v>
+      </c>
+      <c r="G142" s="1">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="H142" s="1">
+        <v>23</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A224674B-6E82-4A65-B657-62225041A1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2328C8-B614-460F-9B11-BC26F632459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,6 +637,26 @@
   </si>
   <si>
     <t>500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L143" sqref="L143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5609,6 +5629,166 @@
         <v>60</v>
       </c>
     </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3">
+        <v>7.0000000000000003E+74</v>
+      </c>
+      <c r="C143" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143" s="1">
+        <v>20</v>
+      </c>
+      <c r="E143" s="1">
+        <v>13100000</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2</v>
+      </c>
+      <c r="G143" s="1">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="H143" s="1">
+        <v>23</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3">
+        <v>8.9999999999999999E+74</v>
+      </c>
+      <c r="C144" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="1">
+        <v>20</v>
+      </c>
+      <c r="E144" s="1">
+        <v>13200000</v>
+      </c>
+      <c r="F144" s="1">
+        <v>2</v>
+      </c>
+      <c r="G144" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="H144" s="1">
+        <v>23</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.2E+75</v>
+      </c>
+      <c r="C145" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="1">
+        <v>20</v>
+      </c>
+      <c r="E145" s="1">
+        <v>13300000</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H145" s="1">
+        <v>23</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1.5E+75</v>
+      </c>
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" s="1">
+        <v>20</v>
+      </c>
+      <c r="E146" s="1">
+        <v>13400000</v>
+      </c>
+      <c r="F146" s="1">
+        <v>2</v>
+      </c>
+      <c r="G146" s="1">
+        <v>5.04E-2</v>
+      </c>
+      <c r="H146" s="1">
+        <v>23</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1.9999999999999999E+75</v>
+      </c>
+      <c r="C147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" s="1">
+        <v>20</v>
+      </c>
+      <c r="E147" s="1">
+        <v>13500000</v>
+      </c>
+      <c r="F147" s="1">
+        <v>2</v>
+      </c>
+      <c r="G147" s="1">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="H147" s="1">
+        <v>23</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2328C8-B614-460F-9B11-BC26F632459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8C5BD-D3D7-41AE-A2CC-E93FBEC9E491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,6 +657,54 @@
   </si>
   <si>
     <t>2000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1겁5000대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,11 +1118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L143" sqref="L143"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5789,6 +5837,390 @@
         <v>60</v>
       </c>
     </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3">
+        <v>3.9999999999999997E+75</v>
+      </c>
+      <c r="C148" t="s">
+        <v>156</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1">
+        <v>13600000</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2</v>
+      </c>
+      <c r="G148" s="1">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="H148" s="1">
+        <v>23</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3">
+        <v>6E+75</v>
+      </c>
+      <c r="C149" t="s">
+        <v>157</v>
+      </c>
+      <c r="D149" s="1">
+        <v>20</v>
+      </c>
+      <c r="E149" s="1">
+        <v>13700000</v>
+      </c>
+      <c r="F149" s="1">
+        <v>2</v>
+      </c>
+      <c r="G149" s="1">
+        <v>5.16E-2</v>
+      </c>
+      <c r="H149" s="1">
+        <v>23</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3">
+        <v>7.9999999999999994E+75</v>
+      </c>
+      <c r="C150" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20</v>
+      </c>
+      <c r="E150" s="1">
+        <v>13800000</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2</v>
+      </c>
+      <c r="G150" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H150" s="1">
+        <v>23</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1E+76</v>
+      </c>
+      <c r="C151" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20</v>
+      </c>
+      <c r="E151" s="1">
+        <v>13900000</v>
+      </c>
+      <c r="F151" s="1">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="H151" s="1">
+        <v>23</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1.4999999999999999E+76</v>
+      </c>
+      <c r="C152" t="s">
+        <v>160</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20</v>
+      </c>
+      <c r="E152" s="1">
+        <v>14000000</v>
+      </c>
+      <c r="F152" s="1">
+        <v>2</v>
+      </c>
+      <c r="G152" s="1">
+        <v>5.28E-2</v>
+      </c>
+      <c r="H152" s="1">
+        <v>23</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2.0000000000000001E+76</v>
+      </c>
+      <c r="C153" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20</v>
+      </c>
+      <c r="E153" s="1">
+        <v>14100000</v>
+      </c>
+      <c r="F153" s="1">
+        <v>2</v>
+      </c>
+      <c r="G153" s="1">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="H153" s="1">
+        <v>23</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2.9999999999999998E+76</v>
+      </c>
+      <c r="C154" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20</v>
+      </c>
+      <c r="E154" s="1">
+        <v>14200000</v>
+      </c>
+      <c r="F154" s="1">
+        <v>2</v>
+      </c>
+      <c r="G154" s="1">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="H154" s="1">
+        <v>23</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3">
+        <v>4.9999999999999999E+76</v>
+      </c>
+      <c r="C155" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20</v>
+      </c>
+      <c r="E155" s="1">
+        <v>14300000</v>
+      </c>
+      <c r="F155" s="1">
+        <v>2</v>
+      </c>
+      <c r="G155" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H155" s="1">
+        <v>23</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3">
+        <v>7E+76</v>
+      </c>
+      <c r="C156" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" s="1">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1">
+        <v>14400000</v>
+      </c>
+      <c r="F156" s="1">
+        <v>2</v>
+      </c>
+      <c r="G156" s="1">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="H156" s="1">
+        <v>23</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3">
+        <v>9.9999999999999998E+76</v>
+      </c>
+      <c r="C157" t="s">
+        <v>165</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20</v>
+      </c>
+      <c r="E157" s="1">
+        <v>14500000</v>
+      </c>
+      <c r="F157" s="1">
+        <v>2</v>
+      </c>
+      <c r="G157" s="1">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="H157" s="1">
+        <v>23</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1.4999999999999999E+77</v>
+      </c>
+      <c r="C158" t="s">
+        <v>166</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20</v>
+      </c>
+      <c r="E158" s="1">
+        <v>14600000</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2</v>
+      </c>
+      <c r="G158" s="1">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="H158" s="1">
+        <v>23</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2E+77</v>
+      </c>
+      <c r="C159" t="s">
+        <v>167</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20</v>
+      </c>
+      <c r="E159" s="1">
+        <v>14700000</v>
+      </c>
+      <c r="F159" s="1">
+        <v>2</v>
+      </c>
+      <c r="G159" s="1">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="H159" s="1">
+        <v>23</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\MonthUpdate\Month\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF8C5BD-D3D7-41AE-A2CC-E93FBEC9E491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1F5DC-6267-461F-A307-62395CA7C861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -705,6 +705,22 @@
   </si>
   <si>
     <t>20겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,11 +1134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6221,6 +6237,134 @@
         <v>60</v>
       </c>
     </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3">
+        <v>2.9999999999999998E+77</v>
+      </c>
+      <c r="C160" t="s">
+        <v>168</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20</v>
+      </c>
+      <c r="E160" s="1">
+        <v>14800000</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2</v>
+      </c>
+      <c r="G160" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H160" s="1">
+        <v>23</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5E+77</v>
+      </c>
+      <c r="C161" t="s">
+        <v>169</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20</v>
+      </c>
+      <c r="E161" s="1">
+        <v>14900000</v>
+      </c>
+      <c r="F161" s="1">
+        <v>2</v>
+      </c>
+      <c r="G161" s="1">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="H161" s="1">
+        <v>23</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3">
+        <v>7.0000000000000003E+77</v>
+      </c>
+      <c r="C162" t="s">
+        <v>170</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20</v>
+      </c>
+      <c r="E162" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2</v>
+      </c>
+      <c r="G162" s="1">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="H162" s="1">
+        <v>23</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1E+78</v>
+      </c>
+      <c r="C163" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20</v>
+      </c>
+      <c r="E163" s="1">
+        <v>15100000</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2</v>
+      </c>
+      <c r="G163" s="1">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="H163" s="1">
+        <v>23</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\MonthUpdate\Month\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1F5DC-6267-461F-A307-62395CA7C861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC7D09-E353-44F9-9267-20D3D081D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24150" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,30 @@
   </si>
   <si>
     <t>100겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,11 +1158,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C163" sqref="C163"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6365,6 +6389,198 @@
         <v>60</v>
       </c>
     </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1.4999999999999999E+78</v>
+      </c>
+      <c r="C164" t="s">
+        <v>172</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20</v>
+      </c>
+      <c r="E164" s="1">
+        <v>15200000</v>
+      </c>
+      <c r="F164" s="1">
+        <v>2</v>
+      </c>
+      <c r="G164" s="1">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="H164" s="1">
+        <v>23</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3">
+        <v>2E+78</v>
+      </c>
+      <c r="C165" t="s">
+        <v>173</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20</v>
+      </c>
+      <c r="E165" s="1">
+        <v>15300000</v>
+      </c>
+      <c r="F165" s="1">
+        <v>2</v>
+      </c>
+      <c r="G165" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H165" s="1">
+        <v>23</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3">
+        <v>2.4999999999999999E+78</v>
+      </c>
+      <c r="C166" t="s">
+        <v>174</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1">
+        <v>15400000</v>
+      </c>
+      <c r="F166" s="1">
+        <v>2</v>
+      </c>
+      <c r="G166" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="H166" s="1">
+        <v>23</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3">
+        <v>2.9999999999999998E+78</v>
+      </c>
+      <c r="C167" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20</v>
+      </c>
+      <c r="E167" s="1">
+        <v>15500000</v>
+      </c>
+      <c r="F167" s="1">
+        <v>2</v>
+      </c>
+      <c r="G167" s="1">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="H167" s="1">
+        <v>23</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3">
+        <v>4E+78</v>
+      </c>
+      <c r="C168" t="s">
+        <v>176</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20</v>
+      </c>
+      <c r="E168" s="1">
+        <v>15600000</v>
+      </c>
+      <c r="F168" s="1">
+        <v>2</v>
+      </c>
+      <c r="G168" s="1">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="H168" s="1">
+        <v>23</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3">
+        <v>4.9999999999999998E+78</v>
+      </c>
+      <c r="C169" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20</v>
+      </c>
+      <c r="E169" s="1">
+        <v>15700000</v>
+      </c>
+      <c r="F169" s="1">
+        <v>2</v>
+      </c>
+      <c r="G169" s="1">
+        <v>5.96E-2</v>
+      </c>
+      <c r="H169" s="1">
+        <v>23</v>
+      </c>
+      <c r="I169" s="1">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CC7D09-E353-44F9-9267-20D3D081D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074428B7-FFEC-41D7-8418-D90510A5A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,6 +745,18 @@
   </si>
   <si>
     <t>500겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000겁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,11 +1170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6581,6 +6593,102 @@
         <v>60</v>
       </c>
     </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3">
+        <v>5.9999999999999996E+78</v>
+      </c>
+      <c r="C170" t="s">
+        <v>178</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20</v>
+      </c>
+      <c r="E170" s="1">
+        <v>15800000</v>
+      </c>
+      <c r="F170" s="1">
+        <v>2</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="H170" s="1">
+        <v>23</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3">
+        <v>8.0000000000000001E+78</v>
+      </c>
+      <c r="C171" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20</v>
+      </c>
+      <c r="E171" s="1">
+        <v>15900000</v>
+      </c>
+      <c r="F171" s="1">
+        <v>2</v>
+      </c>
+      <c r="G171" s="1">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="H171" s="1">
+        <v>23</v>
+      </c>
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3">
+        <v>9.9999999999999997E+78</v>
+      </c>
+      <c r="C172" t="s">
+        <v>180</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20</v>
+      </c>
+      <c r="E172" s="1">
+        <v>16000000</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2</v>
+      </c>
+      <c r="G172" s="1">
+        <v>6.08E-2</v>
+      </c>
+      <c r="H172" s="1">
+        <v>23</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+      <c r="J172" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074428B7-FFEC-41D7-8418-D90510A5A287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D3E8C-F854-46B8-9FCB-8B6CBDE2FC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -757,6 +757,42 @@
   </si>
   <si>
     <t>1000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1170,11 +1206,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <selection pane="bottomLeft" activeCell="K172" sqref="K172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6689,6 +6725,294 @@
         <v>60</v>
       </c>
     </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3">
+        <v>1.9999999999999999E+79</v>
+      </c>
+      <c r="C173" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20</v>
+      </c>
+      <c r="E173" s="1">
+        <v>16100000</v>
+      </c>
+      <c r="F173" s="1">
+        <v>2</v>
+      </c>
+      <c r="G173" s="1">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="H173" s="1">
+        <v>23</v>
+      </c>
+      <c r="I173" s="1">
+        <v>0</v>
+      </c>
+      <c r="J173" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5E+79</v>
+      </c>
+      <c r="C174" t="s">
+        <v>182</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20</v>
+      </c>
+      <c r="E174" s="1">
+        <v>16200000</v>
+      </c>
+      <c r="F174" s="1">
+        <v>2</v>
+      </c>
+      <c r="G174" s="1">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="H174" s="1">
+        <v>23</v>
+      </c>
+      <c r="I174" s="1">
+        <v>0</v>
+      </c>
+      <c r="J174" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3">
+        <v>1E+80</v>
+      </c>
+      <c r="C175" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20</v>
+      </c>
+      <c r="E175" s="1">
+        <v>16300000</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2</v>
+      </c>
+      <c r="G175" s="1">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H175" s="1">
+        <v>23</v>
+      </c>
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+      <c r="J175" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3">
+        <v>2E+80</v>
+      </c>
+      <c r="C176" t="s">
+        <v>184</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20</v>
+      </c>
+      <c r="E176" s="1">
+        <v>16400000</v>
+      </c>
+      <c r="F176" s="1">
+        <v>2</v>
+      </c>
+      <c r="G176" s="1">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="H176" s="1">
+        <v>23</v>
+      </c>
+      <c r="I176" s="1">
+        <v>0</v>
+      </c>
+      <c r="J176" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3">
+        <v>4E+80</v>
+      </c>
+      <c r="C177" t="s">
+        <v>185</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20</v>
+      </c>
+      <c r="E177" s="1">
+        <v>16500000</v>
+      </c>
+      <c r="F177" s="1">
+        <v>2</v>
+      </c>
+      <c r="G177" s="1">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="H177" s="1">
+        <v>23</v>
+      </c>
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+      <c r="J177" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5.9999999999999997E+80</v>
+      </c>
+      <c r="C178" t="s">
+        <v>186</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20</v>
+      </c>
+      <c r="E178" s="1">
+        <v>16600000</v>
+      </c>
+      <c r="F178" s="1">
+        <v>2</v>
+      </c>
+      <c r="G178" s="1">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="H178" s="1">
+        <v>23</v>
+      </c>
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+      <c r="J178" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3">
+        <v>9.9999999999999992E+80</v>
+      </c>
+      <c r="C179" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20</v>
+      </c>
+      <c r="E179" s="1">
+        <v>16700000</v>
+      </c>
+      <c r="F179" s="1">
+        <v>2</v>
+      </c>
+      <c r="G179" s="1">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="H179" s="1">
+        <v>23</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3">
+        <v>1.5E+81</v>
+      </c>
+      <c r="C180" t="s">
+        <v>188</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20</v>
+      </c>
+      <c r="E180" s="1">
+        <v>16800000</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2</v>
+      </c>
+      <c r="G180" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H180" s="1">
+        <v>23</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3">
+        <v>1.9999999999999998E+81</v>
+      </c>
+      <c r="C181" t="s">
+        <v>189</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20</v>
+      </c>
+      <c r="E181" s="1">
+        <v>16900000</v>
+      </c>
+      <c r="F181" s="1">
+        <v>2</v>
+      </c>
+      <c r="G181" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="H181" s="1">
+        <v>23</v>
+      </c>
+      <c r="I181" s="1">
+        <v>0</v>
+      </c>
+      <c r="J181" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D3E8C-F854-46B8-9FCB-8B6CBDE2FC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4685DE31-4F58-464E-8F44-428A1A90DAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,6 +793,34 @@
   </si>
   <si>
     <t>20업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,11 +1234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K172" sqref="K172"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7013,6 +7041,230 @@
         <v>60</v>
       </c>
     </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3">
+        <v>4.9999999999999998E+81</v>
+      </c>
+      <c r="C182" t="s">
+        <v>190</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20</v>
+      </c>
+      <c r="E182" s="1">
+        <v>17000000</v>
+      </c>
+      <c r="F182" s="1">
+        <v>2</v>
+      </c>
+      <c r="G182" s="1">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="H182" s="1">
+        <v>23</v>
+      </c>
+      <c r="I182" s="1">
+        <v>0</v>
+      </c>
+      <c r="J182" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3">
+        <v>9.9999999999999996E+81</v>
+      </c>
+      <c r="C183" t="s">
+        <v>191</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20</v>
+      </c>
+      <c r="E183" s="1">
+        <v>17100000</v>
+      </c>
+      <c r="F183" s="1">
+        <v>2</v>
+      </c>
+      <c r="G183" s="1">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="H183" s="1">
+        <v>23</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+      <c r="J183" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1.9999999999999999E+82</v>
+      </c>
+      <c r="C184" t="s">
+        <v>192</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20</v>
+      </c>
+      <c r="E184" s="1">
+        <v>17200000</v>
+      </c>
+      <c r="F184" s="1">
+        <v>2</v>
+      </c>
+      <c r="G184" s="1">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="H184" s="1">
+        <v>23</v>
+      </c>
+      <c r="I184" s="1">
+        <v>0</v>
+      </c>
+      <c r="J184" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3">
+        <v>5.0000000000000002E+82</v>
+      </c>
+      <c r="C185" t="s">
+        <v>193</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20</v>
+      </c>
+      <c r="E185" s="1">
+        <v>17300000</v>
+      </c>
+      <c r="F185" s="1">
+        <v>2</v>
+      </c>
+      <c r="G185" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H185" s="1">
+        <v>23</v>
+      </c>
+      <c r="I185" s="1">
+        <v>0</v>
+      </c>
+      <c r="J185" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3">
+        <v>1E+83</v>
+      </c>
+      <c r="C186" t="s">
+        <v>194</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20</v>
+      </c>
+      <c r="E186" s="1">
+        <v>17400000</v>
+      </c>
+      <c r="F186" s="1">
+        <v>2</v>
+      </c>
+      <c r="G186" s="1">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="H186" s="1">
+        <v>23</v>
+      </c>
+      <c r="I186" s="1">
+        <v>0</v>
+      </c>
+      <c r="J186" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3">
+        <v>2.0000000000000001E+83</v>
+      </c>
+      <c r="C187" t="s">
+        <v>195</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20</v>
+      </c>
+      <c r="E187" s="1">
+        <v>17500000</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2</v>
+      </c>
+      <c r="G187" s="1">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="H187" s="1">
+        <v>23</v>
+      </c>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="J187" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3">
+        <v>5.0000000000000003E+83</v>
+      </c>
+      <c r="C188" t="s">
+        <v>196</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20</v>
+      </c>
+      <c r="E188" s="1">
+        <v>17600000</v>
+      </c>
+      <c r="F188" s="1">
+        <v>2</v>
+      </c>
+      <c r="G188" s="1">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="H188" s="1">
+        <v>23</v>
+      </c>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+      <c r="J188" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4685DE31-4F58-464E-8F44-428A1A90DAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D35A7-EAB0-47EB-AB0F-E40F6055B179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -821,6 +821,34 @@
   </si>
   <si>
     <t>5000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25긍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,11 +1262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J180" sqref="J180"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7265,6 +7293,230 @@
         <v>60</v>
       </c>
     </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="3">
+        <v>8.0000000000000002E+83</v>
+      </c>
+      <c r="C189" t="s">
+        <v>197</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20</v>
+      </c>
+      <c r="E189" s="1">
+        <v>17700000</v>
+      </c>
+      <c r="F189" s="1">
+        <v>2</v>
+      </c>
+      <c r="G189" s="1">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="H189" s="1">
+        <v>23</v>
+      </c>
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+      <c r="J189" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="C190" t="s">
+        <v>198</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20</v>
+      </c>
+      <c r="E190" s="1">
+        <v>17800000</v>
+      </c>
+      <c r="F190" s="1">
+        <v>2</v>
+      </c>
+      <c r="G190" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H190" s="1">
+        <v>23</v>
+      </c>
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+      <c r="J190" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3">
+        <v>2.0000000000000001E+84</v>
+      </c>
+      <c r="C191" t="s">
+        <v>199</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20</v>
+      </c>
+      <c r="E191" s="1">
+        <v>17900000</v>
+      </c>
+      <c r="F191" s="1">
+        <v>2</v>
+      </c>
+      <c r="G191" s="1">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="H191" s="1">
+        <v>23</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+      <c r="J191" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3">
+        <v>5.0000000000000001E+84</v>
+      </c>
+      <c r="C192" t="s">
+        <v>200</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20</v>
+      </c>
+      <c r="E192" s="1">
+        <v>18000000</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2</v>
+      </c>
+      <c r="G192" s="1">
+        <v>6.88E-2</v>
+      </c>
+      <c r="H192" s="1">
+        <v>23</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+      <c r="J192" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1E+85</v>
+      </c>
+      <c r="C193" t="s">
+        <v>201</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20</v>
+      </c>
+      <c r="E193" s="1">
+        <v>18100000</v>
+      </c>
+      <c r="F193" s="1">
+        <v>2</v>
+      </c>
+      <c r="G193" s="1">
+        <v>6.9199999999999998E-2</v>
+      </c>
+      <c r="H193" s="1">
+        <v>23</v>
+      </c>
+      <c r="I193" s="1">
+        <v>0</v>
+      </c>
+      <c r="J193" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3">
+        <v>2E+85</v>
+      </c>
+      <c r="C194" t="s">
+        <v>202</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20</v>
+      </c>
+      <c r="E194" s="1">
+        <v>18200000</v>
+      </c>
+      <c r="F194" s="1">
+        <v>2</v>
+      </c>
+      <c r="G194" s="1">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="H194" s="1">
+        <v>23</v>
+      </c>
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+      <c r="J194" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="3">
+        <v>2.5E+85</v>
+      </c>
+      <c r="C195" t="s">
+        <v>203</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20</v>
+      </c>
+      <c r="E195" s="1">
+        <v>18300000</v>
+      </c>
+      <c r="F195" s="1">
+        <v>2</v>
+      </c>
+      <c r="G195" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H195" s="1">
+        <v>23</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3D35A7-EAB0-47EB-AB0F-E40F6055B179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4642338-E85C-4115-B68D-F7717DFD2A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="212">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -849,6 +850,38 @@
   </si>
   <si>
     <t>25긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +889,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,8 +921,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,6 +947,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -916,7 +962,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,8 +972,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,8 +995,12 @@
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1254,7 +1307,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1262,11 +1315,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J195"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1275,6 +1328,7 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="8" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2192,8 +2246,8 @@
       <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="G29" s="1">
-        <v>4.0000000000000001E-3</v>
+      <c r="G29" s="6">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H29" s="1">
         <v>23</v>
@@ -2224,8 +2278,8 @@
       <c r="F30" s="1">
         <v>2</v>
       </c>
-      <c r="G30" s="1">
-        <v>4.1999999999999997E-3</v>
+      <c r="G30" s="6">
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="H30" s="1">
         <v>23</v>
@@ -2256,8 +2310,8 @@
       <c r="F31" s="1">
         <v>2</v>
       </c>
-      <c r="G31" s="1">
-        <v>4.4000000000000003E-3</v>
+      <c r="G31" s="6">
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="H31" s="1">
         <v>23</v>
@@ -2288,8 +2342,8 @@
       <c r="F32" s="1">
         <v>2</v>
       </c>
-      <c r="G32" s="1">
-        <v>4.7999999999999996E-3</v>
+      <c r="G32" s="6">
+        <v>8.6E-3</v>
       </c>
       <c r="H32" s="1">
         <v>23</v>
@@ -2320,8 +2374,8 @@
       <c r="F33" s="1">
         <v>2</v>
       </c>
-      <c r="G33" s="1">
-        <v>5.1999999999999998E-3</v>
+      <c r="G33" s="6">
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="H33" s="1">
         <v>23</v>
@@ -2352,8 +2406,8 @@
       <c r="F34" s="1">
         <v>2</v>
       </c>
-      <c r="G34" s="1">
-        <v>5.5999999999999999E-3</v>
+      <c r="G34" s="6">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H34" s="1">
         <v>23</v>
@@ -2384,8 +2438,8 @@
       <c r="F35" s="1">
         <v>2</v>
       </c>
-      <c r="G35" s="1">
-        <v>6.0000000000000001E-3</v>
+      <c r="G35" s="6">
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="H35" s="1">
         <v>23</v>
@@ -2416,8 +2470,8 @@
       <c r="F36" s="1">
         <v>2</v>
       </c>
-      <c r="G36" s="1">
-        <v>6.4000000000000003E-3</v>
+      <c r="G36" s="6">
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="H36" s="1">
         <v>23</v>
@@ -2448,8 +2502,8 @@
       <c r="F37" s="1">
         <v>2</v>
       </c>
-      <c r="G37" s="1">
-        <v>6.7999999999999996E-3</v>
+      <c r="G37" s="6">
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="H37" s="1">
         <v>23</v>
@@ -2480,8 +2534,8 @@
       <c r="F38" s="1">
         <v>2</v>
       </c>
-      <c r="G38" s="1">
-        <v>7.1999999999999998E-3</v>
+      <c r="G38" s="6">
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="H38" s="1">
         <v>23</v>
@@ -2512,8 +2566,8 @@
       <c r="F39" s="1">
         <v>2</v>
       </c>
-      <c r="G39" s="1">
-        <v>7.6E-3</v>
+      <c r="G39" s="6">
+        <v>0.01</v>
       </c>
       <c r="H39" s="1">
         <v>23</v>
@@ -2544,8 +2598,8 @@
       <c r="F40" s="1">
         <v>2</v>
       </c>
-      <c r="G40" s="1">
-        <v>8.0000000000000002E-3</v>
+      <c r="G40" s="6">
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="H40" s="1">
         <v>23</v>
@@ -2576,8 +2630,8 @@
       <c r="F41" s="1">
         <v>2</v>
       </c>
-      <c r="G41" s="1">
-        <v>8.3999999999999995E-3</v>
+      <c r="G41" s="6">
+        <v>1.04E-2</v>
       </c>
       <c r="H41" s="1">
         <v>23</v>
@@ -2608,8 +2662,8 @@
       <c r="F42" s="1">
         <v>2</v>
       </c>
-      <c r="G42" s="1">
-        <v>8.8000000000000005E-3</v>
+      <c r="G42" s="6">
+        <v>1.06E-2</v>
       </c>
       <c r="H42" s="1">
         <v>23</v>
@@ -2641,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="1">
-        <v>9.1999999999999998E-3</v>
+        <v>1.84E-2</v>
       </c>
       <c r="H43" s="1">
         <v>23</v>
@@ -2673,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="1">
-        <v>9.5999999999999992E-3</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="H44" s="1">
         <v>23</v>
@@ -2705,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>0.01</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="H45" s="1">
         <v>23</v>
@@ -2737,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>1.04E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="H46" s="1">
         <v>23</v>
@@ -2769,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>1.0800000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H47" s="1">
         <v>23</v>
@@ -2801,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="1">
-        <v>1.12E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="H48" s="1">
         <v>23</v>
@@ -2833,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>1.1599999999999999E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="H49" s="1">
         <v>23</v>
@@ -2865,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>1.2E-2</v>
+        <v>2.12E-2</v>
       </c>
       <c r="H50" s="1">
         <v>23</v>
@@ -2897,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="1">
-        <v>1.24E-2</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="H51" s="1">
         <v>23</v>
@@ -2929,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="1">
-        <v>1.2800000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H52" s="1">
         <v>23</v>
@@ -2961,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>1.32E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="H53" s="1">
         <v>23</v>
@@ -2993,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="H54" s="1">
         <v>23</v>
@@ -3025,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="1">
-        <v>1.4E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
       <c r="H55" s="1">
         <v>23</v>
@@ -3057,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="G56" s="1">
-        <v>1.44E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="H56" s="1">
         <v>23</v>
@@ -3089,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>2.92E-2</v>
       </c>
       <c r="H57" s="1">
         <v>23</v>
@@ -3121,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="1">
-        <v>1.52E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="H58" s="1">
         <v>23</v>
@@ -3153,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="H59" s="1">
         <v>23</v>
@@ -3185,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="1">
-        <v>1.6E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="H60" s="1">
         <v>23</v>
@@ -3217,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="H61" s="1">
         <v>23</v>
@@ -3249,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="1">
-        <v>1.6799999999999999E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="H62" s="1">
         <v>23</v>
@@ -3281,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="1">
-        <v>1.72E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="H63" s="1">
         <v>23</v>
@@ -3313,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>1.7600000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H64" s="1">
         <v>23</v>
@@ -3345,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="H65" s="1">
         <v>23</v>
@@ -3377,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="1">
-        <v>1.84E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="H66" s="1">
         <v>23</v>
@@ -3409,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="G67" s="1">
-        <v>1.8800000000000001E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="H67" s="1">
         <v>23</v>
@@ -3441,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="1">
-        <v>1.9199999999999998E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="H68" s="1">
         <v>23</v>
@@ -3473,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="1">
-        <v>1.9599999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H69" s="1">
         <v>23</v>
@@ -3505,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="1">
-        <v>0.02</v>
+        <v>3.44E-2</v>
       </c>
       <c r="H70" s="1">
         <v>23</v>
@@ -3537,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="1">
-        <v>2.0400000000000001E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="H71" s="1">
         <v>23</v>
@@ -3569,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <v>2.0799999999999999E-2</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="H72" s="1">
         <v>23</v>
@@ -3601,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="1">
-        <v>2.12E-2</v>
+        <v>3.56E-2</v>
       </c>
       <c r="H73" s="1">
         <v>23</v>
@@ -3633,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="1">
-        <v>2.1600000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H74" s="1">
         <v>23</v>
@@ -3665,7 +3719,7 @@
         <v>2</v>
       </c>
       <c r="G75" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H75" s="1">
         <v>23</v>
@@ -3697,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="G76" s="1">
-        <v>2.24E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="H76" s="1">
         <v>23</v>
@@ -3729,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="G77" s="1">
-        <v>2.2800000000000001E-2</v>
+        <v>4.48E-2</v>
       </c>
       <c r="H77" s="1">
         <v>23</v>
@@ -3761,7 +3815,7 @@
         <v>2</v>
       </c>
       <c r="G78" s="1">
-        <v>2.3199999999999998E-2</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="H78" s="1">
         <v>23</v>
@@ -3793,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="1">
-        <v>2.3599999999999999E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="H79" s="1">
         <v>23</v>
@@ -3825,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="G80" s="1">
-        <v>2.4E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="H80" s="1">
         <v>23</v>
@@ -3857,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="G81" s="1">
-        <v>2.4400000000000002E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="H81" s="1">
         <v>23</v>
@@ -3889,7 +3943,7 @@
         <v>2</v>
       </c>
       <c r="G82" s="1">
-        <v>2.4799999999999999E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="H82" s="1">
         <v>23</v>
@@ -3921,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="G83" s="1">
-        <v>2.52E-2</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="H83" s="1">
         <v>23</v>
@@ -3953,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <v>2.5600000000000001E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="H84" s="1">
         <v>23</v>
@@ -3985,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="G85" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H85" s="1">
         <v>23</v>
@@ -4017,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="G86" s="1">
-        <v>2.64E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="H86" s="1">
         <v>23</v>
@@ -4049,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <v>2.6800000000000001E-2</v>
+        <v>4.8800000000000003E-2</v>
       </c>
       <c r="H87" s="1">
         <v>23</v>
@@ -4081,7 +4135,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="1">
-        <v>2.7199999999999998E-2</v>
+        <v>4.9200000000000098E-2</v>
       </c>
       <c r="H88" s="1">
         <v>23</v>
@@ -4113,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="1">
-        <v>2.76E-2</v>
+        <v>4.9600000000000102E-2</v>
       </c>
       <c r="H89" s="1">
         <v>23</v>
@@ -4145,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>5.00000000000001E-2</v>
       </c>
       <c r="H90" s="1">
         <v>23</v>
@@ -4177,7 +4231,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="1">
-        <v>2.8400000000000002E-2</v>
+        <v>5.0400000000000097E-2</v>
       </c>
       <c r="H91" s="1">
         <v>23</v>
@@ -4209,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="G92" s="1">
-        <v>2.8799999999999999E-2</v>
+        <v>5.0800000000000102E-2</v>
       </c>
       <c r="H92" s="1">
         <v>23</v>
@@ -4241,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="1">
-        <v>2.92E-2</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="H93" s="1">
         <v>23</v>
@@ -4273,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="G94" s="1">
-        <v>2.9600000000000001E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="H94" s="1">
         <v>23</v>
@@ -4305,7 +4359,7 @@
         <v>2</v>
       </c>
       <c r="G95" s="1">
-        <v>0.03</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="H95" s="1">
         <v>23</v>
@@ -4337,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="G96" s="1">
-        <v>3.04E-2</v>
+        <v>5.96E-2</v>
       </c>
       <c r="H96" s="1">
         <v>23</v>
@@ -4369,7 +4423,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="1">
-        <v>3.0800000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H97" s="1">
         <v>23</v>
@@ -4401,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="G98" s="1">
-        <v>3.1199999999999999E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="H98" s="1">
         <v>23</v>
@@ -4433,7 +4487,7 @@
         <v>2</v>
       </c>
       <c r="G99" s="1">
-        <v>3.1600000000000003E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="H99" s="1">
         <v>23</v>
@@ -4465,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="G100" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>6.1199999999999997E-2</v>
       </c>
       <c r="H100" s="1">
         <v>23</v>
@@ -4497,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="1">
-        <v>3.2399999999999998E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="H101" s="1">
         <v>23</v>
@@ -4529,7 +4583,7 @@
         <v>2</v>
       </c>
       <c r="G102" s="1">
-        <v>3.2800000000000003E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H102" s="1">
         <v>23</v>
@@ -4561,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="1">
-        <v>3.32E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="H103" s="1">
         <v>23</v>
@@ -4593,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="1">
-        <v>3.3599999999999998E-2</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="H104" s="1">
         <v>23</v>
@@ -4625,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="G105" s="1">
-        <v>3.4000000000000002E-2</v>
+        <v>6.3200000000000006E-2</v>
       </c>
       <c r="H105" s="1">
         <v>23</v>
@@ -4657,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="1">
-        <v>3.44E-2</v>
+        <v>6.3600000000000004E-2</v>
       </c>
       <c r="H106" s="1">
         <v>23</v>
@@ -4689,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="G107" s="1">
-        <v>3.4799999999999998E-2</v>
+        <v>6.9599999999999995E-2</v>
       </c>
       <c r="H107" s="1">
         <v>23</v>
@@ -4721,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="G108" s="1">
-        <v>3.5200000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H108" s="1">
         <v>23</v>
@@ -4753,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="G109" s="1">
-        <v>3.56E-2</v>
+        <v>7.0400000000000004E-2</v>
       </c>
       <c r="H109" s="1">
         <v>23</v>
@@ -4785,7 +4839,7 @@
         <v>2</v>
       </c>
       <c r="G110" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="H110" s="1">
         <v>23</v>
@@ -4817,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="G111" s="1">
-        <v>3.6400000000000002E-2</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="H111" s="1">
         <v>23</v>
@@ -4849,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="G112" s="1">
-        <v>3.6799999999999999E-2</v>
+        <v>7.1600000000000094E-2</v>
       </c>
       <c r="H112" s="1">
         <v>23</v>
@@ -4881,7 +4935,7 @@
         <v>2</v>
       </c>
       <c r="G113" s="1">
-        <v>3.7199999999999997E-2</v>
+        <v>7.2000000000000106E-2</v>
       </c>
       <c r="H113" s="1">
         <v>23</v>
@@ -4913,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="G114" s="1">
-        <v>3.7600000000000001E-2</v>
+        <v>7.2400000000000103E-2</v>
       </c>
       <c r="H114" s="1">
         <v>23</v>
@@ -4945,7 +4999,7 @@
         <v>2</v>
       </c>
       <c r="G115" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>7.2800000000000101E-2</v>
       </c>
       <c r="H115" s="1">
         <v>23</v>
@@ -4977,7 +5031,7 @@
         <v>2</v>
       </c>
       <c r="G116" s="1">
-        <v>3.8399999999999997E-2</v>
+        <v>7.3200000000000098E-2</v>
       </c>
       <c r="H116" s="1">
         <v>23</v>
@@ -5009,7 +5063,7 @@
         <v>2</v>
       </c>
       <c r="G117" s="1">
-        <v>3.8800000000000001E-2</v>
+        <v>7.3600000000000096E-2</v>
       </c>
       <c r="H117" s="1">
         <v>23</v>
@@ -5041,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="G118" s="1">
-        <v>3.9199999999999999E-2</v>
+        <v>7.4000000000000093E-2</v>
       </c>
       <c r="H118" s="1">
         <v>23</v>
@@ -5073,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="G119" s="1">
-        <v>3.9600000000000003E-2</v>
+        <v>7.4400000000000105E-2</v>
       </c>
       <c r="H119" s="1">
         <v>23</v>
@@ -5105,7 +5159,7 @@
         <v>2</v>
       </c>
       <c r="G120" s="1">
-        <v>0.04</v>
+        <v>7.4800000000000103E-2</v>
       </c>
       <c r="H120" s="1">
         <v>23</v>
@@ -5137,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="G121" s="1">
-        <v>4.0399999999999998E-2</v>
+        <v>7.5200000000000197E-2</v>
       </c>
       <c r="H121" s="1">
         <v>23</v>
@@ -5169,7 +5223,7 @@
         <v>2</v>
       </c>
       <c r="G122" s="1">
-        <v>4.0800000000000003E-2</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="H122" s="1">
         <v>23</v>
@@ -5201,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="G123" s="1">
-        <v>4.1200000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H123" s="1">
         <v>23</v>
@@ -5233,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="G124" s="1">
-        <v>4.1599999999999998E-2</v>
+        <v>8.2400000000000001E-2</v>
       </c>
       <c r="H124" s="1">
         <v>23</v>
@@ -5265,7 +5319,7 @@
         <v>2</v>
       </c>
       <c r="G125" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="H125" s="1">
         <v>23</v>
@@ -5297,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="G126" s="1">
-        <v>4.24E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="H126" s="1">
         <v>23</v>
@@ -5329,7 +5383,7 @@
         <v>2</v>
       </c>
       <c r="G127" s="1">
-        <v>4.2799999999999998E-2</v>
+        <v>8.3599999999999994E-2</v>
       </c>
       <c r="H127" s="1">
         <v>23</v>
@@ -5361,7 +5415,7 @@
         <v>2</v>
       </c>
       <c r="G128" s="1">
-        <v>4.3200000000000002E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="H128" s="1">
         <v>23</v>
@@ -5393,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="G129" s="1">
-        <v>4.36E-2</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="H129" s="1">
         <v>23</v>
@@ -5425,7 +5479,7 @@
         <v>2</v>
       </c>
       <c r="G130" s="1">
-        <v>4.3999999999999997E-2</v>
+        <v>8.48E-2</v>
       </c>
       <c r="H130" s="1">
         <v>23</v>
@@ -5457,7 +5511,7 @@
         <v>2</v>
       </c>
       <c r="G131" s="1">
-        <v>4.4400000000000002E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="H131" s="1">
         <v>23</v>
@@ -5489,7 +5543,7 @@
         <v>2</v>
       </c>
       <c r="G132" s="1">
-        <v>4.48E-2</v>
+        <v>8.5599999999999996E-2</v>
       </c>
       <c r="H132" s="1">
         <v>23</v>
@@ -5521,7 +5575,7 @@
         <v>2</v>
       </c>
       <c r="G133" s="1">
-        <v>4.5199999999999997E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H133" s="1">
         <v>23</v>
@@ -5553,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="G134" s="1">
-        <v>4.5600000000000002E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="H134" s="1">
         <v>23</v>
@@ -5585,7 +5639,7 @@
         <v>2</v>
       </c>
       <c r="G135" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>8.6800000000000002E-2</v>
       </c>
       <c r="H135" s="1">
         <v>23</v>
@@ -5617,7 +5671,7 @@
         <v>2</v>
       </c>
       <c r="G136" s="1">
-        <v>4.6399999999999997E-2</v>
+        <v>8.72E-2</v>
       </c>
       <c r="H136" s="1">
         <v>23</v>
@@ -5649,7 +5703,7 @@
         <v>2</v>
       </c>
       <c r="G137" s="1">
-        <v>4.6800000000000001E-2</v>
+        <v>8.7599999999999997E-2</v>
       </c>
       <c r="H137" s="1">
         <v>23</v>
@@ -5681,7 +5735,7 @@
         <v>2</v>
       </c>
       <c r="G138" s="1">
-        <v>4.7199999999999999E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="H138" s="1">
         <v>23</v>
@@ -5713,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="G139" s="1">
-        <v>4.7600000000000003E-2</v>
+        <v>8.8400000000000006E-2</v>
       </c>
       <c r="H139" s="1">
         <v>23</v>
@@ -5745,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="G140" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H140" s="1">
         <v>23</v>
@@ -5777,7 +5831,7 @@
         <v>2</v>
       </c>
       <c r="G141" s="1">
-        <v>4.8399999999999999E-2</v>
+        <v>9.64E-2</v>
       </c>
       <c r="H141" s="1">
         <v>23</v>
@@ -5809,7 +5863,7 @@
         <v>2</v>
       </c>
       <c r="G142" s="1">
-        <v>4.8800000000000003E-2</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="H142" s="1">
         <v>23</v>
@@ -5841,7 +5895,7 @@
         <v>2</v>
       </c>
       <c r="G143" s="1">
-        <v>4.9200000000000001E-2</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H143" s="1">
         <v>23</v>
@@ -5873,7 +5927,7 @@
         <v>2</v>
       </c>
       <c r="G144" s="1">
-        <v>4.9599999999999998E-2</v>
+        <v>9.7600000000000006E-2</v>
       </c>
       <c r="H144" s="1">
         <v>23</v>
@@ -5905,7 +5959,7 @@
         <v>2</v>
       </c>
       <c r="G145" s="1">
-        <v>0.05</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H145" s="1">
         <v>23</v>
@@ -5937,7 +5991,7 @@
         <v>2</v>
       </c>
       <c r="G146" s="1">
-        <v>5.04E-2</v>
+        <v>9.8400000000000001E-2</v>
       </c>
       <c r="H146" s="1">
         <v>23</v>
@@ -5969,7 +6023,7 @@
         <v>2</v>
       </c>
       <c r="G147" s="1">
-        <v>5.0799999999999998E-2</v>
+        <v>9.8799999999999999E-2</v>
       </c>
       <c r="H147" s="1">
         <v>23</v>
@@ -6001,7 +6055,7 @@
         <v>2</v>
       </c>
       <c r="G148" s="1">
-        <v>5.1200000000000002E-2</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="H148" s="1">
         <v>23</v>
@@ -6033,7 +6087,7 @@
         <v>2</v>
       </c>
       <c r="G149" s="1">
-        <v>5.16E-2</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="H149" s="1">
         <v>23</v>
@@ -6065,7 +6119,7 @@
         <v>2</v>
       </c>
       <c r="G150" s="1">
-        <v>5.1999999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H150" s="1">
         <v>23</v>
@@ -6097,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="G151" s="1">
-        <v>5.2400000000000002E-2</v>
+        <v>0.1004</v>
       </c>
       <c r="H151" s="1">
         <v>23</v>
@@ -6129,7 +6183,7 @@
         <v>2</v>
       </c>
       <c r="G152" s="1">
-        <v>5.28E-2</v>
+        <v>0.1008</v>
       </c>
       <c r="H152" s="1">
         <v>23</v>
@@ -6161,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="G153" s="1">
-        <v>5.3199999999999997E-2</v>
+        <v>0.1012</v>
       </c>
       <c r="H153" s="1">
         <v>23</v>
@@ -6193,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="G154" s="1">
-        <v>5.3600000000000002E-2</v>
+        <v>0.1016</v>
       </c>
       <c r="H154" s="1">
         <v>23</v>
@@ -6225,7 +6279,7 @@
         <v>2</v>
       </c>
       <c r="G155" s="1">
-        <v>5.3999999999999999E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="H155" s="1">
         <v>23</v>
@@ -6257,7 +6311,7 @@
         <v>2</v>
       </c>
       <c r="G156" s="1">
-        <v>5.4399999999999997E-2</v>
+        <v>0.1024</v>
       </c>
       <c r="H156" s="1">
         <v>23</v>
@@ -6289,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="G157" s="1">
-        <v>5.4800000000000001E-2</v>
+        <v>0.1028</v>
       </c>
       <c r="H157" s="1">
         <v>23</v>
@@ -6321,7 +6375,7 @@
         <v>2</v>
       </c>
       <c r="G158" s="1">
-        <v>5.5199999999999999E-2</v>
+        <v>0.1104</v>
       </c>
       <c r="H158" s="1">
         <v>23</v>
@@ -6353,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="G159" s="1">
-        <v>5.5599999999999997E-2</v>
+        <v>0.1108</v>
       </c>
       <c r="H159" s="1">
         <v>23</v>
@@ -6385,7 +6439,7 @@
         <v>2</v>
       </c>
       <c r="G160" s="1">
-        <v>5.6000000000000001E-2</v>
+        <v>0.11119999999999999</v>
       </c>
       <c r="H160" s="1">
         <v>23</v>
@@ -6417,7 +6471,7 @@
         <v>2</v>
       </c>
       <c r="G161" s="1">
-        <v>5.6399999999999999E-2</v>
+        <v>0.1116</v>
       </c>
       <c r="H161" s="1">
         <v>23</v>
@@ -6449,7 +6503,7 @@
         <v>2</v>
       </c>
       <c r="G162" s="1">
-        <v>5.6800000000000003E-2</v>
+        <v>0.112</v>
       </c>
       <c r="H162" s="1">
         <v>23</v>
@@ -6481,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="G163" s="1">
-        <v>5.7200000000000001E-2</v>
+        <v>0.1124</v>
       </c>
       <c r="H163" s="1">
         <v>23</v>
@@ -6513,7 +6567,7 @@
         <v>2</v>
       </c>
       <c r="G164" s="1">
-        <v>5.7599999999999998E-2</v>
+        <v>0.1128</v>
       </c>
       <c r="H164" s="1">
         <v>23</v>
@@ -6545,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="G165" s="1">
-        <v>5.8000000000000003E-2</v>
+        <v>0.1132</v>
       </c>
       <c r="H165" s="1">
         <v>23</v>
@@ -6577,7 +6631,7 @@
         <v>2</v>
       </c>
       <c r="G166" s="1">
-        <v>5.8400000000000001E-2</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="H166" s="1">
         <v>23</v>
@@ -6609,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="G167" s="1">
-        <v>5.8799999999999998E-2</v>
+        <v>0.114</v>
       </c>
       <c r="H167" s="1">
         <v>23</v>
@@ -6641,7 +6695,7 @@
         <v>2</v>
       </c>
       <c r="G168" s="1">
-        <v>5.9200000000000003E-2</v>
+        <v>0.1144</v>
       </c>
       <c r="H168" s="1">
         <v>23</v>
@@ -6673,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="G169" s="1">
-        <v>5.96E-2</v>
+        <v>0.1148</v>
       </c>
       <c r="H169" s="1">
         <v>23</v>
@@ -6705,7 +6759,7 @@
         <v>2</v>
       </c>
       <c r="G170" s="1">
-        <v>0.06</v>
+        <v>0.1152</v>
       </c>
       <c r="H170" s="1">
         <v>23</v>
@@ -6737,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="G171" s="1">
-        <v>6.0400000000000002E-2</v>
+        <v>0.11559999999999999</v>
       </c>
       <c r="H171" s="1">
         <v>23</v>
@@ -6769,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="G172" s="1">
-        <v>6.08E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="H172" s="1">
         <v>23</v>
@@ -6801,7 +6855,7 @@
         <v>2</v>
       </c>
       <c r="G173" s="1">
-        <v>6.1199999999999997E-2</v>
+        <v>0.1164</v>
       </c>
       <c r="H173" s="1">
         <v>23</v>
@@ -6833,7 +6887,7 @@
         <v>2</v>
       </c>
       <c r="G174" s="1">
-        <v>6.1600000000000002E-2</v>
+        <v>0.1168</v>
       </c>
       <c r="H174" s="1">
         <v>23</v>
@@ -6865,7 +6919,7 @@
         <v>2</v>
       </c>
       <c r="G175" s="1">
-        <v>6.2E-2</v>
+        <v>0.1172</v>
       </c>
       <c r="H175" s="1">
         <v>23</v>
@@ -6897,7 +6951,7 @@
         <v>2</v>
       </c>
       <c r="G176" s="1">
-        <v>6.2399999999999997E-2</v>
+        <v>0.12479999999999999</v>
       </c>
       <c r="H176" s="1">
         <v>23</v>
@@ -6929,7 +6983,7 @@
         <v>2</v>
       </c>
       <c r="G177" s="1">
-        <v>6.2799999999999995E-2</v>
+        <v>0.12520000000000001</v>
       </c>
       <c r="H177" s="1">
         <v>23</v>
@@ -6961,7 +7015,7 @@
         <v>2</v>
       </c>
       <c r="G178" s="1">
-        <v>6.3200000000000006E-2</v>
+        <v>0.12559999999999999</v>
       </c>
       <c r="H178" s="1">
         <v>23</v>
@@ -6993,7 +7047,7 @@
         <v>2</v>
       </c>
       <c r="G179" s="1">
-        <v>6.3600000000000004E-2</v>
+        <v>0.126</v>
       </c>
       <c r="H179" s="1">
         <v>23</v>
@@ -7025,7 +7079,7 @@
         <v>2</v>
       </c>
       <c r="G180" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>0.12640000000000001</v>
       </c>
       <c r="H180" s="1">
         <v>23</v>
@@ -7057,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="G181" s="1">
-        <v>6.4399999999999999E-2</v>
+        <v>0.1268</v>
       </c>
       <c r="H181" s="1">
         <v>23</v>
@@ -7089,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="G182" s="1">
-        <v>6.4799999999999996E-2</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="H182" s="1">
         <v>23</v>
@@ -7121,7 +7175,7 @@
         <v>2</v>
       </c>
       <c r="G183" s="1">
-        <v>6.5199999999999994E-2</v>
+        <v>0.12759999999999999</v>
       </c>
       <c r="H183" s="1">
         <v>23</v>
@@ -7153,7 +7207,7 @@
         <v>2</v>
       </c>
       <c r="G184" s="1">
-        <v>6.5600000000000006E-2</v>
+        <v>0.128</v>
       </c>
       <c r="H184" s="1">
         <v>23</v>
@@ -7185,7 +7239,7 @@
         <v>2</v>
       </c>
       <c r="G185" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>0.12839999999999999</v>
       </c>
       <c r="H185" s="1">
         <v>23</v>
@@ -7217,7 +7271,7 @@
         <v>2</v>
       </c>
       <c r="G186" s="1">
-        <v>6.6400000000000001E-2</v>
+        <v>0.1288</v>
       </c>
       <c r="H186" s="1">
         <v>23</v>
@@ -7249,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="G187" s="1">
-        <v>6.6799999999999998E-2</v>
+        <v>0.12920000000000001</v>
       </c>
       <c r="H187" s="1">
         <v>23</v>
@@ -7281,7 +7335,7 @@
         <v>2</v>
       </c>
       <c r="G188" s="1">
-        <v>6.7199999999999996E-2</v>
+        <v>0.12959999999999999</v>
       </c>
       <c r="H188" s="1">
         <v>23</v>
@@ -7313,7 +7367,7 @@
         <v>2</v>
       </c>
       <c r="G189" s="1">
-        <v>6.7599999999999993E-2</v>
+        <v>0.13</v>
       </c>
       <c r="H189" s="1">
         <v>23</v>
@@ -7345,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="G190" s="1">
-        <v>6.8000000000000005E-2</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="H190" s="1">
         <v>23</v>
@@ -7377,7 +7431,7 @@
         <v>2</v>
       </c>
       <c r="G191" s="1">
-        <v>6.8400000000000002E-2</v>
+        <v>0.1308</v>
       </c>
       <c r="H191" s="1">
         <v>23</v>
@@ -7409,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="G192" s="1">
-        <v>6.88E-2</v>
+        <v>0.13120000000000001</v>
       </c>
       <c r="H192" s="1">
         <v>23</v>
@@ -7441,7 +7495,7 @@
         <v>2</v>
       </c>
       <c r="G193" s="1">
-        <v>6.9199999999999998E-2</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="H193" s="1">
         <v>23</v>
@@ -7473,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="G194" s="1">
-        <v>6.9599999999999995E-2</v>
+        <v>0.13919999999999999</v>
       </c>
       <c r="H194" s="1">
         <v>23</v>
@@ -7505,7 +7559,7 @@
         <v>2</v>
       </c>
       <c r="G195" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1396</v>
       </c>
       <c r="H195" s="1">
         <v>23</v>
@@ -7514,6 +7568,262 @@
         <v>0</v>
       </c>
       <c r="J195" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1E+86</v>
+      </c>
+      <c r="C196" t="s">
+        <v>204</v>
+      </c>
+      <c r="D196" s="1">
+        <v>20</v>
+      </c>
+      <c r="E196" s="1">
+        <v>18400000</v>
+      </c>
+      <c r="F196" s="1">
+        <v>2</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H196" s="1">
+        <v>23</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+      <c r="J196" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="3">
+        <v>4.9999999999999998E+86</v>
+      </c>
+      <c r="C197" t="s">
+        <v>205</v>
+      </c>
+      <c r="D197" s="1">
+        <v>20</v>
+      </c>
+      <c r="E197" s="1">
+        <v>18500000</v>
+      </c>
+      <c r="F197" s="1">
+        <v>2</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0.1404</v>
+      </c>
+      <c r="H197" s="1">
+        <v>23</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+      <c r="J197" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="3">
+        <v>9.9999999999999996E+86</v>
+      </c>
+      <c r="C198" t="s">
+        <v>206</v>
+      </c>
+      <c r="D198" s="1">
+        <v>20</v>
+      </c>
+      <c r="E198" s="1">
+        <v>18600000</v>
+      </c>
+      <c r="F198" s="1">
+        <v>2</v>
+      </c>
+      <c r="G198" s="1">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="H198" s="1">
+        <v>23</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+      <c r="J198" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="3">
+        <v>2.9999999999999999E+87</v>
+      </c>
+      <c r="C199" t="s">
+        <v>207</v>
+      </c>
+      <c r="D199" s="1">
+        <v>20</v>
+      </c>
+      <c r="E199" s="1">
+        <v>18700000</v>
+      </c>
+      <c r="F199" s="1">
+        <v>2</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="H199" s="1">
+        <v>23</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+      <c r="J199" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="3">
+        <v>4.9999999999999998E+87</v>
+      </c>
+      <c r="C200" t="s">
+        <v>208</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20</v>
+      </c>
+      <c r="E200" s="1">
+        <v>18800000</v>
+      </c>
+      <c r="F200" s="1">
+        <v>2</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0.1416</v>
+      </c>
+      <c r="H200" s="1">
+        <v>23</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+      <c r="J200" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="3">
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="C201" t="s">
+        <v>209</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20</v>
+      </c>
+      <c r="E201" s="1">
+        <v>18900000</v>
+      </c>
+      <c r="F201" s="1">
+        <v>2</v>
+      </c>
+      <c r="G201" s="1">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H201" s="1">
+        <v>23</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+      <c r="J201" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3">
+        <v>1.9999999999999999E+88</v>
+      </c>
+      <c r="C202" t="s">
+        <v>210</v>
+      </c>
+      <c r="D202" s="1">
+        <v>20</v>
+      </c>
+      <c r="E202" s="1">
+        <v>19000000</v>
+      </c>
+      <c r="F202" s="1">
+        <v>2</v>
+      </c>
+      <c r="G202" s="1">
+        <v>0.1424</v>
+      </c>
+      <c r="H202" s="1">
+        <v>23</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+      <c r="J202" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="3">
+        <v>5E+88</v>
+      </c>
+      <c r="C203" t="s">
+        <v>211</v>
+      </c>
+      <c r="D203" s="1">
+        <v>20</v>
+      </c>
+      <c r="E203" s="1">
+        <v>19100000</v>
+      </c>
+      <c r="F203" s="1">
+        <v>2</v>
+      </c>
+      <c r="G203" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="H203" s="1">
+        <v>23</v>
+      </c>
+      <c r="I203" s="1">
+        <v>0</v>
+      </c>
+      <c r="J203" s="1">
         <v>60</v>
       </c>
     </row>
@@ -7522,4 +7832,995 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
+  <dimension ref="B1:B195"/>
+  <sheetViews>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="1">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="1">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="1">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="1">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="1">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="1">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="1">
+        <v>1.84E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="1">
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="1">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="1">
+        <v>2.12E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="1">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="1">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="1">
+        <v>2.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="1">
+        <v>2.4799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1">
+        <v>2.52E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="1">
+        <v>2.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="1">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="1">
+        <v>2.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="1">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="1">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="1">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="1">
+        <v>2.92E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="1">
+        <v>3.04E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="1">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="1">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="1">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="1">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="1">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="1">
+        <v>3.4799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="1">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="1">
+        <v>3.56E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="1">
+        <v>3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="1">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="1">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="1">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="1">
+        <v>4.0800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="1">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="1">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="1">
+        <v>4.24E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="1">
+        <v>4.2799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="1">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="1">
+        <v>4.36E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="1">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="1">
+        <v>4.48E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="1">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="1">
+        <v>4.5600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="1">
+        <v>4.6399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="1">
+        <v>4.6800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="1">
+        <v>4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="1">
+        <v>4.7600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="1">
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="1">
+        <v>4.8800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="1">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="1">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="1">
+        <v>5.04E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="1">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="1">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="1">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="1">
+        <v>5.2400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="1">
+        <v>5.28E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="1">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="1">
+        <v>5.3600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="1">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="1">
+        <v>5.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="1">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="1">
+        <v>5.5599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="1">
+        <v>5.6399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="1">
+        <v>5.6800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="1">
+        <v>5.7200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="1">
+        <v>5.7599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="1">
+        <v>5.8400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="1">
+        <v>5.8799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="1">
+        <v>5.9200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="1">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="1">
+        <v>6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="1">
+        <v>6.08E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="1">
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="1">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="1">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="1">
+        <v>6.2399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="1">
+        <v>6.2799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="1">
+        <v>6.3200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="1">
+        <v>6.3600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="1">
+        <v>6.4799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="1">
+        <v>6.5199999999999994E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="1">
+        <v>6.5600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="1">
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="1">
+        <v>6.6799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="1">
+        <v>6.7199999999999996E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="1">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="1">
+        <v>6.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="1">
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="1">
+        <v>6.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="1">
+        <v>6.9599999999999995E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4642338-E85C-4115-B68D-F7717DFD2A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154DFEE-E142-46AB-B53C-C148EAF72621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -882,6 +882,22 @@
   </si>
   <si>
     <t>5갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,11 +1331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B195" sqref="B195"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H204" sqref="H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7824,6 +7840,134 @@
         <v>0</v>
       </c>
       <c r="J203" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="3">
+        <v>9.9999999999999999E+88</v>
+      </c>
+      <c r="C204" t="s">
+        <v>212</v>
+      </c>
+      <c r="D204" s="1">
+        <v>20</v>
+      </c>
+      <c r="E204" s="1">
+        <v>19200000</v>
+      </c>
+      <c r="F204" s="1">
+        <v>2</v>
+      </c>
+      <c r="G204" s="1">
+        <v>0.15040000000000001</v>
+      </c>
+      <c r="H204" s="1">
+        <v>23</v>
+      </c>
+      <c r="I204" s="1">
+        <v>0</v>
+      </c>
+      <c r="J204" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="3">
+        <v>2E+89</v>
+      </c>
+      <c r="C205" t="s">
+        <v>213</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20</v>
+      </c>
+      <c r="E205" s="1">
+        <v>19300000</v>
+      </c>
+      <c r="F205" s="1">
+        <v>2</v>
+      </c>
+      <c r="G205" s="1">
+        <v>0.15079999999999999</v>
+      </c>
+      <c r="H205" s="1">
+        <v>23</v>
+      </c>
+      <c r="I205" s="1">
+        <v>0</v>
+      </c>
+      <c r="J205" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="3">
+        <v>3.0000000000000001E+89</v>
+      </c>
+      <c r="C206" t="s">
+        <v>214</v>
+      </c>
+      <c r="D206" s="1">
+        <v>20</v>
+      </c>
+      <c r="E206" s="1">
+        <v>19400000</v>
+      </c>
+      <c r="F206" s="1">
+        <v>2</v>
+      </c>
+      <c r="G206" s="1">
+        <v>0.1512</v>
+      </c>
+      <c r="H206" s="1">
+        <v>23</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+      <c r="J206" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="3">
+        <v>4.9999999999999998E+89</v>
+      </c>
+      <c r="C207" t="s">
+        <v>215</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20</v>
+      </c>
+      <c r="E207" s="1">
+        <v>19500000</v>
+      </c>
+      <c r="F207" s="1">
+        <v>2</v>
+      </c>
+      <c r="G207" s="1">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="H207" s="1">
+        <v>23</v>
+      </c>
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+      <c r="J207" s="1">
         <v>60</v>
       </c>
     </row>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A154DFEE-E142-46AB-B53C-C148EAF72621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8520DE-BC9D-4439-AA44-07B5A58DC91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -898,6 +898,42 @@
   </si>
   <si>
     <t>50갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400갈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1323,7 +1359,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1331,11 +1367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J207"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H204" sqref="H204"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7968,6 +8004,294 @@
         <v>0</v>
       </c>
       <c r="J207" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="3">
+        <v>6.0000000000000003E+89</v>
+      </c>
+      <c r="C208" t="s">
+        <v>216</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20</v>
+      </c>
+      <c r="E208" s="1">
+        <v>19600000</v>
+      </c>
+      <c r="F208" s="1">
+        <v>2</v>
+      </c>
+      <c r="G208" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="H208" s="1">
+        <v>23</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+      <c r="J208" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="3">
+        <v>7.0000000000000001E+89</v>
+      </c>
+      <c r="C209" t="s">
+        <v>217</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20</v>
+      </c>
+      <c r="E209" s="1">
+        <v>19700000</v>
+      </c>
+      <c r="F209" s="1">
+        <v>2</v>
+      </c>
+      <c r="G209" s="1">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="H209" s="1">
+        <v>23</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+      <c r="J209" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="3">
+        <v>8E+89</v>
+      </c>
+      <c r="C210" t="s">
+        <v>218</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20</v>
+      </c>
+      <c r="E210" s="1">
+        <v>19800000</v>
+      </c>
+      <c r="F210" s="1">
+        <v>2</v>
+      </c>
+      <c r="G210" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="H210" s="1">
+        <v>23</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+      <c r="J210" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="3">
+        <v>9.9999999999999997E+89</v>
+      </c>
+      <c r="C211" t="s">
+        <v>219</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20</v>
+      </c>
+      <c r="E211" s="1">
+        <v>19900000</v>
+      </c>
+      <c r="F211" s="1">
+        <v>2</v>
+      </c>
+      <c r="G211" s="1">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="H211" s="1">
+        <v>23</v>
+      </c>
+      <c r="I211" s="1">
+        <v>0</v>
+      </c>
+      <c r="J211" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1.4999999999999999E+90</v>
+      </c>
+      <c r="C212" t="s">
+        <v>220</v>
+      </c>
+      <c r="D212" s="1">
+        <v>20</v>
+      </c>
+      <c r="E212" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="F212" s="1">
+        <v>2</v>
+      </c>
+      <c r="G212" s="1">
+        <v>0.1608</v>
+      </c>
+      <c r="H212" s="1">
+        <v>23</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0</v>
+      </c>
+      <c r="J212" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1.9999999999999999E+90</v>
+      </c>
+      <c r="C213" t="s">
+        <v>221</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20</v>
+      </c>
+      <c r="E213" s="1">
+        <v>20100000</v>
+      </c>
+      <c r="F213" s="1">
+        <v>2</v>
+      </c>
+      <c r="G213" s="1">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="H213" s="1">
+        <v>23</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+      <c r="J213" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="3">
+        <v>2.5000000000000002E+90</v>
+      </c>
+      <c r="C214" t="s">
+        <v>222</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20</v>
+      </c>
+      <c r="E214" s="1">
+        <v>20200000</v>
+      </c>
+      <c r="F214" s="1">
+        <v>2</v>
+      </c>
+      <c r="G214" s="1">
+        <v>0.16159999999999999</v>
+      </c>
+      <c r="H214" s="1">
+        <v>23</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0</v>
+      </c>
+      <c r="J214" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="3">
+        <v>2.9999999999999998E+90</v>
+      </c>
+      <c r="C215" t="s">
+        <v>223</v>
+      </c>
+      <c r="D215" s="1">
+        <v>20</v>
+      </c>
+      <c r="E215" s="1">
+        <v>20300000</v>
+      </c>
+      <c r="F215" s="1">
+        <v>2</v>
+      </c>
+      <c r="G215" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H215" s="1">
+        <v>23</v>
+      </c>
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+      <c r="J215" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="3">
+        <v>3.9999999999999999E+90</v>
+      </c>
+      <c r="C216" t="s">
+        <v>224</v>
+      </c>
+      <c r="D216" s="1">
+        <v>20</v>
+      </c>
+      <c r="E216" s="1">
+        <v>20400000</v>
+      </c>
+      <c r="F216" s="1">
+        <v>2</v>
+      </c>
+      <c r="G216" s="1">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="H216" s="1">
+        <v>23</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+      <c r="J216" s="1">
         <v>60</v>
       </c>
     </row>
